--- a/Resources/Data/Stage00.xlsx
+++ b/Resources/Data/Stage00.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\s172207\GS2\BackUp(0629)\ドキュメント\TCCompe\3DPrograming_0618\Resources\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s172207\Documents\GitHub\LastProject\SlimeDashitsu\Resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -702,38 +702,7 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill>
@@ -752,47 +721,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1091,8 +1019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2025,7 +1953,7 @@
         <v>0</v>
       </c>
       <c r="I32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J32">
         <v>1</v>
@@ -2617,7 +2545,7 @@
         <v>0</v>
       </c>
       <c r="I52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J52">
         <v>1</v>
@@ -3209,7 +3137,7 @@
         <v>0</v>
       </c>
       <c r="I72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J72">
         <v>1</v>
@@ -3473,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="I81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J81">
         <v>1</v>
@@ -3792,10 +3720,10 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -3859,7 +3787,7 @@
         <v>1</v>
       </c>
       <c r="G94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H94">
         <v>1</v>
@@ -3920,13 +3848,13 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G96">
         <v>2</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I96">
         <v>0</v>
@@ -3955,7 +3883,7 @@
         <v>2</v>
       </c>
       <c r="G97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H97">
         <v>2</v>
@@ -3984,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G98">
         <v>2</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I98">
         <v>0</v>
@@ -4019,7 +3947,7 @@
         <v>2</v>
       </c>
       <c r="G99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H99">
         <v>2</v>
@@ -4394,19 +4322,19 @@
   </sheetData>
   <phoneticPr fontId="18"/>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>2</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Resources/Data/Stage00.xlsx
+++ b/Resources/Data/Stage00.xlsx
@@ -1019,8 +1019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1061,22 +1061,22 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1090,25 +1090,25 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1125,22 +1125,22 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1148,223 +1148,223 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1389,22 +1389,22 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1415,10 +1415,10 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1447,10 +1447,10 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1468,7 +1468,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1476,13 +1476,13 @@
         <v>1</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1500,12 +1500,12 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1532,12 +1532,12 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1564,12 +1564,12 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1596,12 +1596,12 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1628,12 +1628,12 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1657,42 +1657,42 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1717,22 +1717,22 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1740,13 +1740,13 @@
         <v>1</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1778,7 +1778,7 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1796,7 +1796,7 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1804,13 +1804,13 @@
         <v>1</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1828,12 +1828,12 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -1860,12 +1860,12 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -1892,12 +1892,12 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -1924,12 +1924,12 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -1953,15 +1953,15 @@
         <v>0</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -1988,39 +1988,39 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2045,22 +2045,22 @@
         <v>1</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2068,13 +2068,13 @@
         <v>1</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2124,7 +2124,7 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2132,13 +2132,13 @@
         <v>1</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2156,12 +2156,12 @@
         <v>0</v>
       </c>
       <c r="J39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -2188,12 +2188,12 @@
         <v>0</v>
       </c>
       <c r="J40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -2220,12 +2220,12 @@
         <v>0</v>
       </c>
       <c r="J41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -2249,15 +2249,15 @@
         <v>0</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -2284,12 +2284,12 @@
         <v>0</v>
       </c>
       <c r="J43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -2316,39 +2316,39 @@
         <v>0</v>
       </c>
       <c r="J44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2373,22 +2373,22 @@
         <v>1</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2402,7 +2402,7 @@
         <v>0</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2420,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="J48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2434,7 +2434,7 @@
         <v>0</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2452,7 +2452,7 @@
         <v>0</v>
       </c>
       <c r="J49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2460,13 +2460,13 @@
         <v>1</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2484,12 +2484,12 @@
         <v>0</v>
       </c>
       <c r="J50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -2516,12 +2516,12 @@
         <v>0</v>
       </c>
       <c r="J51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -2545,15 +2545,15 @@
         <v>0</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -2580,12 +2580,12 @@
         <v>0</v>
       </c>
       <c r="J53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -2612,12 +2612,12 @@
         <v>0</v>
       </c>
       <c r="J54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -2644,39 +2644,39 @@
         <v>0</v>
       </c>
       <c r="J55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2701,22 +2701,22 @@
         <v>1</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -2748,7 +2748,7 @@
         <v>0</v>
       </c>
       <c r="J59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2762,7 +2762,7 @@
         <v>0</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -2780,7 +2780,7 @@
         <v>0</v>
       </c>
       <c r="J60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2788,13 +2788,13 @@
         <v>1</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -2812,12 +2812,12 @@
         <v>0</v>
       </c>
       <c r="J61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2841,15 +2841,15 @@
         <v>0</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -2876,12 +2876,12 @@
         <v>0</v>
       </c>
       <c r="J63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -2908,12 +2908,12 @@
         <v>0</v>
       </c>
       <c r="J64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -2940,12 +2940,12 @@
         <v>0</v>
       </c>
       <c r="J65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -2972,39 +2972,39 @@
         <v>0</v>
       </c>
       <c r="J66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -3029,22 +3029,22 @@
         <v>1</v>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -3058,7 +3058,7 @@
         <v>0</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="J70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -3090,7 +3090,7 @@
         <v>0</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -3108,7 +3108,7 @@
         <v>0</v>
       </c>
       <c r="J71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -3116,13 +3116,13 @@
         <v>1</v>
       </c>
       <c r="B72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -3137,15 +3137,15 @@
         <v>0</v>
       </c>
       <c r="I72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -3172,12 +3172,12 @@
         <v>0</v>
       </c>
       <c r="J73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -3204,12 +3204,12 @@
         <v>0</v>
       </c>
       <c r="J74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -3236,12 +3236,12 @@
         <v>0</v>
       </c>
       <c r="J75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -3268,12 +3268,12 @@
         <v>0</v>
       </c>
       <c r="J76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -3300,39 +3300,39 @@
         <v>0</v>
       </c>
       <c r="J77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -3357,22 +3357,22 @@
         <v>1</v>
       </c>
       <c r="E80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -3401,10 +3401,10 @@
         <v>0</v>
       </c>
       <c r="I81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -3418,7 +3418,7 @@
         <v>0</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -3433,10 +3433,10 @@
         <v>0</v>
       </c>
       <c r="I82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -3444,13 +3444,13 @@
         <v>1</v>
       </c>
       <c r="B83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -3468,12 +3468,12 @@
         <v>0</v>
       </c>
       <c r="J83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -3500,12 +3500,12 @@
         <v>0</v>
       </c>
       <c r="J84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -3532,12 +3532,12 @@
         <v>0</v>
       </c>
       <c r="J85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -3564,12 +3564,12 @@
         <v>0</v>
       </c>
       <c r="J86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -3596,12 +3596,12 @@
         <v>0</v>
       </c>
       <c r="J87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -3628,39 +3628,39 @@
         <v>0</v>
       </c>
       <c r="J88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -3685,22 +3685,22 @@
         <v>1</v>
       </c>
       <c r="E91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -3714,25 +3714,25 @@
         <v>0</v>
       </c>
       <c r="D92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E92">
         <v>0</v>
       </c>
       <c r="F92">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92">
         <v>0</v>
       </c>
       <c r="J92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -3746,25 +3746,25 @@
         <v>0</v>
       </c>
       <c r="D93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E93">
         <v>0</v>
       </c>
       <c r="F93">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93">
         <v>0</v>
       </c>
       <c r="J93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -3772,36 +3772,36 @@
         <v>1</v>
       </c>
       <c r="B94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E94">
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94">
         <v>0</v>
       </c>
       <c r="J94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -3816,24 +3816,24 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95">
         <v>0</v>
       </c>
       <c r="J95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -3848,24 +3848,24 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G96">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96">
         <v>0</v>
       </c>
       <c r="J96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -3880,24 +3880,24 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G97">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97">
         <v>0</v>
       </c>
       <c r="J97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -3912,24 +3912,24 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G98">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98">
         <v>0</v>
       </c>
       <c r="J98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -3944,51 +3944,51 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G99">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99">
         <v>0</v>
       </c>
       <c r="J99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -4013,22 +4013,22 @@
         <v>1</v>
       </c>
       <c r="E102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -4042,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="D103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E103">
         <v>0</v>
@@ -4060,7 +4060,7 @@
         <v>0</v>
       </c>
       <c r="J103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -4074,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E104">
         <v>0</v>
@@ -4092,7 +4092,7 @@
         <v>0</v>
       </c>
       <c r="J104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -4100,13 +4100,13 @@
         <v>1</v>
       </c>
       <c r="B105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E105">
         <v>0</v>
@@ -4124,12 +4124,12 @@
         <v>0</v>
       </c>
       <c r="J105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -4144,24 +4144,24 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G106">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H106">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I106">
         <v>0</v>
       </c>
       <c r="J106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -4188,12 +4188,12 @@
         <v>0</v>
       </c>
       <c r="J107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -4220,12 +4220,12 @@
         <v>0</v>
       </c>
       <c r="J108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -4252,12 +4252,12 @@
         <v>0</v>
       </c>
       <c r="J109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -4284,39 +4284,39 @@
         <v>0</v>
       </c>
       <c r="J110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
